--- a/Observation clusters.xlsx
+++ b/Observation clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University of Kansas\FALL 2024\ASTR 596\observation nigght\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67DD2E0F-BC91-47F3-B1C5-EE1DA45B7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEF13BD-F808-402E-9021-30771E3852B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="12336" xr2:uid="{7E0A09D1-D1A1-4A32-ABF0-7ABFF8FC623B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E0A09D1-D1A1-4A32-ABF0-7ABFF8FC623B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>RA</t>
   </si>
@@ -147,6 +147,51 @@
   </si>
   <si>
     <t>10x10arcmin</t>
+  </si>
+  <si>
+    <t>CCD plot for NGC 7296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness apparent mag </t>
+  </si>
+  <si>
+    <t>Faint observable mag</t>
+  </si>
+  <si>
+    <t>DSS image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCD plots </t>
+  </si>
+  <si>
+    <t>Sparse</t>
+  </si>
+  <si>
+    <t>Yes, clean locus</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Yes. Moderate scatter</t>
+  </si>
+  <si>
+    <t>Crowded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King 19 </t>
   </si>
 </sst>
 </file>
@@ -188,9 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,16 +260,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>595932</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>479778</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74738</xdr:rowOff>
+      <xdr:colOff>467822</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -244,8 +292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606778" y="1834445"/>
-          <a:ext cx="2695222" cy="2642960"/>
+          <a:off x="595932" y="3425705"/>
+          <a:ext cx="2705845" cy="2591906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -257,14 +305,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>393842</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>901843</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>112890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -288,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1834445"/>
-          <a:ext cx="2822223" cy="2681112"/>
+          <a:off x="3835685" y="3416158"/>
+          <a:ext cx="2819686" cy="2630058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,15 +349,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>340456</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:colOff>468883</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -332,12 +380,195 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6900333" y="1834444"/>
-          <a:ext cx="2654679" cy="2681112"/>
+          <a:off x="7037798" y="3304855"/>
+          <a:ext cx="2652141" cy="2630058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>796350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="KING 19 open cluster (CHERUBINO) - AstroBin">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E049DB4-C534-7B7C-E1E7-DADE37858E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11248570" y="3527193"/>
+          <a:ext cx="4037875" cy="4379100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1209523</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>774095</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="SAI OCL Catalog — NGC 7296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6034B981-44C1-635A-7843-87E0703A7CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15699618" y="3628570"/>
+          <a:ext cx="4402667" cy="3793135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1375781</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>179008</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="IC 5146 - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4348AE94-293F-2A35-6B6C-A0B8F4F72F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20703971" y="3676951"/>
+          <a:ext cx="5637037" cy="3704287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -662,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9F5994-3941-4FA1-9ADF-E12C6B96FB60}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,9 +904,12 @@
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="5" max="10" width="16.88671875" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -712,8 +946,26 @@
       <c r="M2" t="s">
         <v>28</v>
       </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -751,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -789,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -826,8 +1078,26 @@
       <c r="M5" s="1">
         <v>252</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -865,7 +1135,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -902,8 +1172,26 @@
       <c r="M7" s="1">
         <v>137</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -940,8 +1228,56 @@
       <c r="M8" s="1">
         <v>675</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
